--- a/meeting/GestionHedbo_Semaine5.xlsx
+++ b/meeting/GestionHedbo_Semaine5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="493"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="493"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -371,7 +371,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +717,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -758,89 +764,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -893,9 +816,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1237,20 +1245,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1258,19 +1266,19 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="12">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="25.5" customHeight="1">
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1284,67 +1292,67 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="12">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="25.5" customHeight="1">
+    <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="12">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="12">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="12">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="12">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1354,19 +1362,19 @@
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="12">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="36.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:8" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1390,8 +1398,8 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1400,21 +1408,21 @@
       <c r="C12" s="10">
         <v>41336</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="39">
+      <c r="D12" s="71"/>
+      <c r="E12" s="40">
         <v>150</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="31">
         <v>2</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="52">
         <f>E12-SUM(F12:F15)</f>
         <v>142</v>
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
       <c r="B13" s="17" t="s">
         <v>43</v>
       </c>
@@ -1422,15 +1430,15 @@
         <v>41336</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="61">
+      <c r="E13" s="41"/>
+      <c r="F13" s="32">
         <v>1</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
       <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
@@ -1438,57 +1446,57 @@
         <v>45</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="61">
+      <c r="E14" s="41"/>
+      <c r="F14" s="32">
         <v>3</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="10">
         <v>41336</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="60">
+      <c r="D15" s="70"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="31">
         <v>2</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="63" t="s">
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="35" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="65">
+      <c r="E16" s="41"/>
+      <c r="F16" s="36">
         <v>6</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -1498,20 +1506,20 @@
         <v>41336</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="30">
+      <c r="E18" s="52">
         <v>162</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="32">
         <v>2</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="52">
         <f>(E18-SUM(F18:F22))</f>
         <v>150</v>
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="31"/>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
       <c r="B19" s="17" t="s">
         <v>43</v>
       </c>
@@ -1519,15 +1527,15 @@
         <v>41336</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="61">
+      <c r="E19" s="63"/>
+      <c r="F19" s="32">
         <v>1</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="31"/>
+    <row r="20" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
       <c r="B20" s="17" t="s">
         <v>44</v>
       </c>
@@ -1535,15 +1543,15 @@
         <v>45</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="61">
+      <c r="E20" s="63"/>
+      <c r="F20" s="32">
         <v>3</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="31"/>
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
       <c r="B21" s="17" t="s">
         <v>40</v>
       </c>
@@ -1551,41 +1559,41 @@
         <v>41336</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="61">
+      <c r="E21" s="63"/>
+      <c r="F21" s="32">
         <v>1</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="60">
+      <c r="D22" s="23"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="31">
         <v>5</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="30"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -1594,21 +1602,21 @@
       <c r="C24" s="10">
         <v>41336</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="30">
+      <c r="D24" s="23"/>
+      <c r="E24" s="52">
         <v>152</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="32">
         <v>1</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="54">
         <f>E24-SUM(F24:F27)</f>
         <v>142</v>
       </c>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
       <c r="B25" s="17" t="s">
         <v>44</v>
       </c>
@@ -1616,15 +1624,15 @@
         <v>46</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="61">
+      <c r="E25" s="41"/>
+      <c r="F25" s="32">
         <v>2</v>
       </c>
-      <c r="G25" s="33"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
       <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
@@ -1632,47 +1640,47 @@
         <v>41336</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="60">
+      <c r="E26" s="41"/>
+      <c r="F26" s="31">
         <v>3</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="53" t="s">
+    <row r="27" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="60">
+      <c r="D27" s="23"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="31">
         <v>4</v>
       </c>
-      <c r="G27" s="32"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="59">
+      <c r="E28" s="65"/>
+      <c r="F28" s="30">
         <v>1</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -1681,39 +1689,39 @@
       <c r="C29" s="10">
         <v>41336</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="39">
+      <c r="D29" s="33"/>
+      <c r="E29" s="40">
         <v>145</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="32">
         <v>1</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="40">
         <f>E29-SUM(F29:F32)</f>
         <v>136</v>
       </c>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
       <c r="B30" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="10">
         <v>41336</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="61">
+      <c r="E30" s="41"/>
+      <c r="F30" s="32">
         <v>3</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="42"/>
+    <row r="31" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
       <c r="B31" s="17" t="s">
         <v>44</v>
       </c>
@@ -1721,15 +1729,15 @@
         <v>46</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="61">
+      <c r="E31" s="41"/>
+      <c r="F31" s="32">
         <v>2</v>
       </c>
-      <c r="G31" s="34"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
       <c r="B32" s="14" t="s">
         <v>36</v>
       </c>
@@ -1737,70 +1745,70 @@
         <v>41336</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="60">
+      <c r="E32" s="41"/>
+      <c r="F32" s="31">
         <v>3</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="56" t="s">
+    <row r="33" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="66">
+      <c r="E33" s="41"/>
+      <c r="F33" s="37">
         <v>1</v>
       </c>
-      <c r="G33" s="34"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="58" t="s">
+    <row r="34" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="59">
+      <c r="E34" s="42"/>
+      <c r="F34" s="30">
         <v>6</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="32">
+      <c r="D35" s="23"/>
+      <c r="E35" s="54">
         <v>156</v>
       </c>
-      <c r="F35" s="60">
+      <c r="F35" s="31">
         <v>10</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="54">
         <f>(E35)-SUM(F35:F39)</f>
         <v>137</v>
       </c>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="40"/>
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
       <c r="B36" s="17" t="s">
         <v>42</v>
       </c>
@@ -1808,15 +1816,15 @@
         <v>41336</v>
       </c>
       <c r="D36" s="16"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="61">
+      <c r="E36" s="55"/>
+      <c r="F36" s="32">
         <v>3</v>
       </c>
-      <c r="G36" s="33"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="17" t="s">
         <v>44</v>
       </c>
@@ -1824,15 +1832,15 @@
         <v>46</v>
       </c>
       <c r="D37" s="16"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="61">
+      <c r="E37" s="55"/>
+      <c r="F37" s="32">
         <v>2</v>
       </c>
-      <c r="G37" s="33"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="40"/>
+    <row r="38" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
       <c r="B38" s="17" t="s">
         <v>43</v>
       </c>
@@ -1840,15 +1848,15 @@
         <v>41336</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="61">
+      <c r="E38" s="55"/>
+      <c r="F38" s="32">
         <v>1</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="47"/>
+    <row r="39" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
       <c r="B39" s="14" t="s">
         <v>38</v>
       </c>
@@ -1856,38 +1864,38 @@
         <v>41336</v>
       </c>
       <c r="D39" s="15"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="60">
+      <c r="E39" s="54"/>
+      <c r="F39" s="31">
         <v>3</v>
       </c>
-      <c r="G39" s="32"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="32" t="s">
+    <row r="40" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="32">
+      <c r="D40" s="21"/>
+      <c r="E40" s="54">
         <v>141</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="31">
         <v>6</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="54">
         <f>(E40)-SUM(F40:F46)</f>
         <v>119</v>
       </c>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
       <c r="B41" s="17" t="s">
         <v>42</v>
       </c>
@@ -1895,15 +1903,15 @@
         <v>41336</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="61">
+      <c r="E41" s="55"/>
+      <c r="F41" s="32">
         <v>3</v>
       </c>
-      <c r="G41" s="33"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A42" s="33"/>
+    <row r="42" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
       <c r="B42" s="17" t="s">
         <v>44</v>
       </c>
@@ -1911,15 +1919,15 @@
         <v>46</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="61">
+      <c r="E42" s="55"/>
+      <c r="F42" s="32">
         <v>2</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
       <c r="B43" s="17" t="s">
         <v>43</v>
       </c>
@@ -1927,15 +1935,15 @@
         <v>41336</v>
       </c>
       <c r="D43" s="16"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="61">
+      <c r="E43" s="55"/>
+      <c r="F43" s="32">
         <v>1</v>
       </c>
-      <c r="G43" s="33"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
       <c r="B44" s="14" t="s">
         <v>38</v>
       </c>
@@ -1943,15 +1951,15 @@
         <v>41336</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="61">
+      <c r="E44" s="55"/>
+      <c r="F44" s="32">
         <v>3</v>
       </c>
-      <c r="G44" s="33"/>
+      <c r="G44" s="55"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A45" s="33"/>
+    <row r="45" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
       <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
@@ -1959,15 +1967,15 @@
         <v>41336</v>
       </c>
       <c r="D45" s="16"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="61">
+      <c r="E45" s="55"/>
+      <c r="F45" s="32">
         <v>4</v>
       </c>
-      <c r="G45" s="33"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="32"/>
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
       <c r="B46" s="14" t="s">
         <v>21</v>
       </c>
@@ -1975,15 +1983,15 @@
         <v>41336</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="60">
+      <c r="E46" s="54"/>
+      <c r="F46" s="31">
         <v>3</v>
       </c>
-      <c r="G46" s="32"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="44" t="s">
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -1993,20 +2001,20 @@
         <v>41336</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="E47" s="27">
+      <c r="E47" s="49">
         <v>140</v>
       </c>
-      <c r="F47" s="61">
+      <c r="F47" s="32">
         <v>3</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="49">
         <f>E47-SUM(F47:F52)</f>
         <v>124</v>
       </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A48" s="45"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
       <c r="B48" s="17" t="s">
         <v>43</v>
       </c>
@@ -2014,15 +2022,15 @@
         <v>41336</v>
       </c>
       <c r="D48" s="16"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="61">
+      <c r="E48" s="50"/>
+      <c r="F48" s="32">
         <v>1</v>
       </c>
-      <c r="G48" s="28"/>
+      <c r="G48" s="50"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A49" s="45"/>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
       <c r="B49" s="17" t="s">
         <v>44</v>
       </c>
@@ -2030,31 +2038,31 @@
         <v>46</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="61">
+      <c r="E49" s="50"/>
+      <c r="F49" s="32">
         <v>2</v>
       </c>
-      <c r="G49" s="28"/>
+      <c r="G49" s="50"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A50" s="45"/>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
       <c r="B50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="60">
+      <c r="D50" s="21"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="31">
         <v>4</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="G50" s="50"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A51" s="45"/>
+    <row r="51" spans="1:8" s="4" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
       <c r="B51" s="17" t="s">
         <v>41</v>
       </c>
@@ -2062,15 +2070,15 @@
         <v>41336</v>
       </c>
       <c r="D51" s="16"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="61">
+      <c r="E51" s="50"/>
+      <c r="F51" s="32">
         <v>4</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A52" s="46"/>
+    <row r="52" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
       <c r="B52" s="14" t="s">
         <v>37</v>
       </c>
@@ -2078,15 +2086,15 @@
         <v>41336</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="60">
+      <c r="E52" s="51"/>
+      <c r="F52" s="31">
         <v>2</v>
       </c>
-      <c r="G52" s="29"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A53" s="39" t="s">
+    <row r="53" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="17" t="s">
@@ -2096,20 +2104,20 @@
         <v>41336</v>
       </c>
       <c r="D53" s="16"/>
-      <c r="E53" s="27">
+      <c r="E53" s="49">
         <v>145</v>
       </c>
-      <c r="F53" s="61">
+      <c r="F53" s="32">
         <v>3</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="67">
         <f>E53-SUM(F53:F59)</f>
         <v>130</v>
       </c>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A54" s="34"/>
+    <row r="54" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
       <c r="B54" s="17" t="s">
         <v>43</v>
       </c>
@@ -2117,15 +2125,15 @@
         <v>41336</v>
       </c>
       <c r="D54" s="16"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="61">
+      <c r="E54" s="50"/>
+      <c r="F54" s="32">
         <v>1</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A55" s="34"/>
+    <row r="55" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
       <c r="B55" s="17" t="s">
         <v>44</v>
       </c>
@@ -2133,15 +2141,15 @@
         <v>46</v>
       </c>
       <c r="D55" s="16"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="61">
+      <c r="E55" s="50"/>
+      <c r="F55" s="32">
         <v>2</v>
       </c>
-      <c r="G55" s="25"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A56" s="34"/>
+    <row r="56" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
       <c r="B56" s="17" t="s">
         <v>42</v>
       </c>
@@ -2149,15 +2157,15 @@
         <v>41336</v>
       </c>
       <c r="D56" s="16"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="61">
+      <c r="E56" s="50"/>
+      <c r="F56" s="32">
         <v>3</v>
       </c>
-      <c r="G56" s="25"/>
+      <c r="G56" s="68"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A57" s="34"/>
+    <row r="57" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
       <c r="B57" s="17" t="s">
         <v>41</v>
       </c>
@@ -2165,51 +2173,51 @@
         <v>41336</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="61">
+      <c r="E57" s="50"/>
+      <c r="F57" s="32">
         <v>4</v>
       </c>
-      <c r="G57" s="25"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="34"/>
+    <row r="58" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
       <c r="B58" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="61">
+      <c r="E58" s="50"/>
+      <c r="F58" s="32">
         <v>2</v>
       </c>
-      <c r="G58" s="25"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A59" s="40"/>
-      <c r="B59" s="53" t="s">
+    <row r="59" spans="1:8" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="15"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="68" t="s">
+      <c r="E59" s="51"/>
+      <c r="F59" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="26"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" ht="14" thickTop="1" thickBot="1">
+    <row r="60" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="21"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="7"/>
       <c r="E60" s="9">
         <f>SUM(E12:E28)</f>
@@ -2219,14 +2227,14 @@
       <c r="G60" s="7"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="12">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="21"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="7"/>
       <c r="E61" s="9">
         <f>SUM(E29:E46)</f>
@@ -2236,14 +2244,14 @@
       <c r="G61" s="7"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" ht="12">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="7"/>
       <c r="E62" s="13">
         <f>SUM(E47:E58)</f>
@@ -2253,12 +2261,12 @@
       <c r="G62" s="7"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="12">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="7"/>
       <c r="E63" s="9">
         <f>SUM(E60:E62)</f>
@@ -2268,7 +2276,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="12">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2278,75 +2286,75 @@
       <c r="G64" s="3"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="12">
-      <c r="A65" s="22" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="12">
-      <c r="A66" s="23" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" ht="12">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" ht="12">
-      <c r="A68" s="20"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="61"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" ht="12">
-      <c r="A69" s="20"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="61"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" ht="12">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" ht="12">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2358,6 +2366,42 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:G67"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="G53:G59"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="G29:G34"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="E29:E34"/>
@@ -2371,42 +2415,6 @@
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="E40:E46"/>
     <mergeCell ref="G40:G46"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="G53:G59"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:G67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/meeting/GestionHedbo_Semaine5.xlsx
+++ b/meeting/GestionHedbo_Semaine5.xlsx
@@ -213,7 +213,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -232,6 +232,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -406,7 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,17 +444,20 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,12 +466,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -846,10 +853,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -858,12 +865,12 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -884,15 +891,15 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -902,45 +909,45 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -954,15 +961,15 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,7 +1027,7 @@
       <c r="C13" s="9">
         <v>41336</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="36"/>
       <c r="F13" s="11">
         <v>1</v>
@@ -1036,7 +1043,7 @@
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="36"/>
       <c r="F14" s="11">
         <v>3</v>
@@ -1068,7 +1075,7 @@
       <c r="C16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="36"/>
       <c r="F16" s="14">
         <v>6</v>
@@ -1096,7 +1103,7 @@
       <c r="C18" s="9">
         <v>41336</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="36">
         <v>162</v>
       </c>
@@ -1117,7 +1124,7 @@
       <c r="C19" s="9">
         <v>41336</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="36"/>
       <c r="F19" s="11">
         <v>1</v>
@@ -1133,7 +1140,7 @@
       <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="36"/>
       <c r="F20" s="11">
         <v>3</v>
@@ -1149,7 +1156,7 @@
       <c r="C21" s="9">
         <v>41336</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="36"/>
       <c r="F21" s="11">
         <v>1</v>
@@ -1165,7 +1172,7 @@
       <c r="C22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="36"/>
       <c r="F22" s="11">
         <v>5</v>
@@ -1179,7 +1186,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="17"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="36"/>
       <c r="H23" s="5"/>
     </row>
@@ -1193,7 +1200,7 @@
       <c r="C24" s="9">
         <v>41336</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="36">
         <v>152</v>
       </c>
@@ -1214,7 +1221,7 @@
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="36"/>
       <c r="F25" s="11">
         <v>2</v>
@@ -1230,7 +1237,7 @@
       <c r="C26" s="9">
         <v>41336</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="36"/>
       <c r="F26" s="11">
         <v>3</v>
@@ -1246,7 +1253,7 @@
       <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="36"/>
       <c r="F27" s="11">
         <v>4</v>
@@ -1259,10 +1266,10 @@
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="36"/>
       <c r="F28" s="15">
         <v>1</v>
@@ -1280,7 +1287,7 @@
       <c r="C29" s="9">
         <v>41336</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="36">
         <v>145</v>
       </c>
@@ -1301,7 +1308,7 @@
       <c r="C30" s="9">
         <v>41336</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="36"/>
@@ -1319,7 +1326,7 @@
       <c r="C31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="36"/>
       <c r="F31" s="11">
         <v>2</v>
@@ -1335,7 +1342,7 @@
       <c r="C32" s="9">
         <v>41336</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="36"/>
       <c r="F32" s="11">
         <v>3</v>
@@ -1345,15 +1352,15 @@
     </row>
     <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="36"/>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>1</v>
       </c>
       <c r="G33" s="36"/>
@@ -1367,7 +1374,7 @@
       <c r="C34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="36"/>
       <c r="F34" s="15">
         <v>6</v>
@@ -1385,7 +1392,7 @@
       <c r="C35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="37">
         <v>156</v>
       </c>
@@ -1406,7 +1413,7 @@
       <c r="C36" s="9">
         <v>41336</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="37"/>
       <c r="F36" s="11">
         <v>3</v>
@@ -1422,7 +1429,7 @@
       <c r="C37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="37"/>
       <c r="F37" s="11">
         <v>2</v>
@@ -1438,7 +1445,7 @@
       <c r="C38" s="9">
         <v>41336</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="37"/>
       <c r="F38" s="11">
         <v>1</v>
@@ -1454,7 +1461,7 @@
       <c r="C39" s="9">
         <v>41336</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="37"/>
       <c r="F39" s="11">
         <v>3</v>
@@ -1469,10 +1476,10 @@
       <c r="B40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="37">
         <v>141</v>
       </c>
@@ -1493,7 +1500,7 @@
       <c r="C41" s="9">
         <v>41336</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="37"/>
       <c r="F41" s="11">
         <v>3</v>
@@ -1509,7 +1516,7 @@
       <c r="C42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="37"/>
       <c r="F42" s="11">
         <v>2</v>
@@ -1525,7 +1532,7 @@
       <c r="C43" s="9">
         <v>41336</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="37"/>
       <c r="F43" s="11">
         <v>1</v>
@@ -1541,7 +1548,7 @@
       <c r="C44" s="9">
         <v>41336</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="37"/>
       <c r="F44" s="11">
         <v>3</v>
@@ -1557,7 +1564,7 @@
       <c r="C45" s="9">
         <v>41336</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="37"/>
       <c r="F45" s="11">
         <v>4</v>
@@ -1573,7 +1580,7 @@
       <c r="C46" s="9">
         <v>41336</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="37"/>
       <c r="F46" s="11">
         <v>3</v>
@@ -1591,7 +1598,7 @@
       <c r="C47" s="9">
         <v>41336</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="36">
         <v>140</v>
       </c>
@@ -1612,7 +1619,7 @@
       <c r="C48" s="9">
         <v>41336</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="36"/>
       <c r="F48" s="11">
         <v>1</v>
@@ -1625,10 +1632,10 @@
       <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="36"/>
       <c r="F49" s="11">
         <v>2</v>
@@ -1641,10 +1648,10 @@
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="30"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="36"/>
       <c r="F50" s="11">
         <v>4</v>
@@ -1660,7 +1667,7 @@
       <c r="C51" s="9">
         <v>41336</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="36"/>
       <c r="F51" s="11">
         <v>4</v>
@@ -1676,7 +1683,7 @@
       <c r="C52" s="9">
         <v>41336</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="36"/>
       <c r="F52" s="11">
         <v>2</v>
@@ -1694,7 +1701,7 @@
       <c r="C53" s="9">
         <v>41336</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="36">
         <v>145</v>
       </c>
@@ -1715,7 +1722,7 @@
       <c r="C54" s="9">
         <v>41336</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="36"/>
       <c r="F54" s="11">
         <v>1</v>
@@ -1728,10 +1735,10 @@
       <c r="B55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="27"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="36"/>
       <c r="F55" s="11">
         <v>2</v>
@@ -1747,7 +1754,7 @@
       <c r="C56" s="9">
         <v>41336</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="36"/>
       <c r="F56" s="11">
         <v>3</v>
@@ -1763,7 +1770,7 @@
       <c r="C57" s="9">
         <v>41336</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="36"/>
       <c r="F57" s="11">
         <v>4</v>
@@ -1776,8 +1783,8 @@
       <c r="B58" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="12"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="36"/>
       <c r="F58" s="11">
         <v>2</v>
@@ -1802,15 +1809,15 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="25">
+      <c r="E60" s="24">
         <f>SUM(E12:E28)</f>
         <v>464</v>
       </c>
@@ -1819,15 +1826,15 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="33"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="25">
+      <c r="E61" s="24">
         <f>SUM(E29:E46)</f>
         <v>442</v>
       </c>
@@ -1836,15 +1843,15 @@
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="33"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="25">
+      <c r="E62" s="24">
         <f>SUM(E47:E58)</f>
         <v>285</v>
       </c>
@@ -1853,13 +1860,13 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="25">
+      <c r="E63" s="24">
         <f>SUM(E60:E62)</f>
         <v>1191</v>
       </c>
@@ -1874,75 +1881,75 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="26"/>
+      <c r="G64" s="25"/>
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="32"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="32"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="5"/>
     </row>
     <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1957,45 +1964,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="E40:E46"/>
-    <mergeCell ref="G40:G46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="E53:E59"/>
-    <mergeCell ref="G53:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="C68:G68"/>
     <mergeCell ref="C69:G69"/>
@@ -2006,8 +1974,47 @@
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="C66:G67"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="E53:E59"/>
+    <mergeCell ref="G53:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="E40:E46"/>
+    <mergeCell ref="G40:G46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>